--- a/data/trans_dic/P37A$medicootras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.006409877389210191</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.009325118632376096</v>
+        <v>0.009325118632376094</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.002340876326351619</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001041331325256883</v>
+        <v>0.001021425130813508</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00315783158634684</v>
+        <v>0.003118695052835204</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001506817242496672</v>
+        <v>0.001511857543717044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002470587062223522</v>
+        <v>0.002510268767490392</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004435730007430338</v>
+        <v>0.004632291525079885</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0006876991038263203</v>
+        <v>0.0006884946304775352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002029390869354921</v>
+        <v>0.001964405853185032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001311602671888215</v>
+        <v>0.001293437106330517</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004901740492616173</v>
+        <v>0.00489119469820024</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01011867935486264</v>
+        <v>0.009741164094958763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01123419671463254</v>
+        <v>0.01005116027085164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005424909825114978</v>
+        <v>0.006055485883990536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01843076178074719</v>
+        <v>0.01805052660876584</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.008964105081484562</v>
+        <v>0.009995924182229089</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01533742623539321</v>
+        <v>0.01320972382370455</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01430751722302774</v>
+        <v>0.01430558440949128</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01662098455292282</v>
+        <v>0.01698701409140397</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00676052766720391</v>
+        <v>0.006594398615211302</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.009579258741281011</v>
+        <v>0.009573007623769988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008121815209452352</v>
+        <v>0.008181032085922139</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01459399646299021</v>
+        <v>0.01448500944704983</v>
       </c>
     </row>
     <row r="7">
@@ -845,37 +845,37 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.002090812234036237</v>
+        <v>0.002183905311195266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001160850421754245</v>
+        <v>0.001119669063830359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002189857224540505</v>
+        <v>0.002191333956350317</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00513256049005368</v>
+        <v>0.005015251680637248</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002800053385154051</v>
+        <v>0.002850707962977901</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0109983991973729</v>
+        <v>0.01124988327595039</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004691929074987617</v>
+        <v>0.004766229218257717</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002967208425048064</v>
+        <v>0.002706837300553159</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007735537621314477</v>
+        <v>0.007858273280598536</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01256541778055598</v>
+        <v>0.01235198809386474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01103965528343693</v>
+        <v>0.01152963575154115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01696956965870763</v>
+        <v>0.01839102082513596</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.005978669781899893</v>
+        <v>0.005520919312235606</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01952365350657978</v>
+        <v>0.01911813245283123</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01330036498932962</v>
+        <v>0.0132024075326148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0254172187275508</v>
+        <v>0.02495187411653205</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003966730979955173</v>
+        <v>0.002762942469104335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0137780407512238</v>
+        <v>0.01315281655295652</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009730484077926352</v>
+        <v>0.009839380905533717</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0174311773603096</v>
+        <v>0.01769853831023511</v>
       </c>
     </row>
     <row r="10">
@@ -982,34 +982,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002803271316153171</v>
+        <v>0.004023981949935796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001137597155070392</v>
+        <v>0.001150392140131872</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.001280438034650945</v>
+        <v>0.001282896855899636</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008042205392611334</v>
+        <v>0.008564968716061525</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0007241385591635445</v>
+        <v>0.0007156559999948051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.001937679431772206</v>
+        <v>0.001982172867474673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002689478786666748</v>
+        <v>0.002786555699978377</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005568559192209391</v>
+        <v>0.005604468642519891</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01574050280161932</v>
+        <v>0.0129912382653769</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01741886626314725</v>
+        <v>0.0156509103843305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01789179088355264</v>
+        <v>0.01815040495532787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01218963035233314</v>
+        <v>0.01130830077636999</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.008586314266328107</v>
+        <v>0.007957156210758451</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01357435648086261</v>
+        <v>0.01302274479230202</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01025010060349144</v>
+        <v>0.01184279211822393</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02274504815649714</v>
+        <v>0.02357303713465534</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008537426487611147</v>
+        <v>0.007672337907119062</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01048483885804987</v>
+        <v>0.0108038902935012</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01119163566276864</v>
+        <v>0.01135236132491012</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01442443328868559</v>
+        <v>0.01484249931922612</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0009004013910349465</v>
+        <v>0.0008939514400389094</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001136048867679605</v>
+        <v>0.001912522711704032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004022492032925339</v>
+        <v>0.004050687282433211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003141312832238773</v>
+        <v>0.002656445731158737</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.000950824732032314</v>
+        <v>0.0009818027317155757</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002892385027907981</v>
+        <v>0.002788821769598339</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003776649086098705</v>
+        <v>0.003851327546490842</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00685217984580587</v>
+        <v>0.00727582872904015</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001410306582088361</v>
+        <v>0.001427255158267504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003406563811941403</v>
+        <v>0.003754996536179368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.005321196209058575</v>
+        <v>0.004965329481797914</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.006377374316568377</v>
+        <v>0.005889003865842143</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008457516516631531</v>
+        <v>0.007507701682068288</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01353605847848891</v>
+        <v>0.01369192866933524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01762795931579642</v>
+        <v>0.01701711649453928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01246932131683135</v>
+        <v>0.01177571214676794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009550198293615668</v>
+        <v>0.009633110067893131</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01462008569565916</v>
+        <v>0.01569002226154091</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01678349742656163</v>
+        <v>0.01616695781480706</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01878414721649948</v>
+        <v>0.01878720942997936</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.006524307346098579</v>
+        <v>0.006246291852420596</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01163298541188667</v>
+        <v>0.01178563342257687</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01454667308363498</v>
+        <v>0.01427339772895488</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01393153368308056</v>
+        <v>0.01357336773719216</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.006207119828624363</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.009948664285043259</v>
+        <v>0.009948664285043258</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002864599044714509</v>
+        <v>0.002882314616114902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00368093441509855</v>
+        <v>0.003689696133740569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004039313738757862</v>
+        <v>0.004111549209080002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005050172306918727</v>
+        <v>0.004630095739267166</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.00406448118939227</v>
+        <v>0.004056982255793869</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01043969809750193</v>
+        <v>0.01036646240382793</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004259024313556153</v>
+        <v>0.004411718006102496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004457978384461964</v>
+        <v>0.004420041932431642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007928780696614585</v>
+        <v>0.008016949014347531</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008499324451281992</v>
+        <v>0.008000877454570314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.009334009483488831</v>
+        <v>0.009356272597566188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.009954095389017668</v>
+        <v>0.01039810881097946</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01109452818889031</v>
+        <v>0.01078745406469793</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009811720797687943</v>
+        <v>0.009735420082463999</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01675978863905721</v>
+        <v>0.01683789826747833</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.008368123077298928</v>
+        <v>0.008312600354813298</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.008199683479153071</v>
+        <v>0.008149538279380371</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0124712331730878</v>
+        <v>0.01259300510428923</v>
       </c>
     </row>
     <row r="19">
@@ -1599,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2181</v>
+        <v>2154</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1662</v>
+        <v>1689</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3257</v>
+        <v>3401</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2842</v>
+        <v>2751</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6984</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7022</v>
+        <v>6760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7903</v>
+        <v>7071</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3661</v>
+        <v>4086</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12730</v>
+        <v>12468</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6170</v>
+        <v>6881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10691</v>
+        <v>9208</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9627</v>
+        <v>9625</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12203</v>
+        <v>12472</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9346</v>
+        <v>9116</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13416</v>
+        <v>13407</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10945</v>
+        <v>11025</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20795</v>
+        <v>20640</v>
       </c>
     </row>
     <row r="8">
@@ -1777,37 +1777,37 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2128</v>
+        <v>2223</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1187</v>
+        <v>1145</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5298</v>
+        <v>5177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2920</v>
+        <v>2973</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11784</v>
+        <v>12054</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9619</v>
+        <v>9771</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6128</v>
+        <v>5591</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16402</v>
+        <v>16663</v>
       </c>
     </row>
     <row r="11">
@@ -1819,37 +1819,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>12791</v>
+        <v>12574</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11287</v>
+        <v>11788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17800</v>
+        <v>19291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5790</v>
+        <v>5346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20152</v>
+        <v>19733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13871</v>
+        <v>13769</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27234</v>
+        <v>26735</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7657</v>
+        <v>5333</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28247</v>
+        <v>26965</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20097</v>
+        <v>20322</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36961</v>
+        <v>37528</v>
       </c>
     </row>
     <row r="12">
@@ -1958,34 +1958,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2129</v>
+        <v>3056</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6532</v>
+        <v>6957</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2974</v>
+        <v>3042</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4154</v>
+        <v>4304</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8995</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10680</v>
+        <v>8815</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13197</v>
+        <v>11857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13590</v>
+        <v>13786</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9789</v>
+        <v>9081</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5872</v>
+        <v>5441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10550</v>
+        <v>10121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8046</v>
+        <v>9297</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18475</v>
+        <v>19147</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11631</v>
+        <v>10452</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16092</v>
+        <v>16582</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17286</v>
+        <v>17534</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23300</v>
+        <v>23976</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1077</v>
+        <v>1813</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3771</v>
+        <v>3798</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3110</v>
+        <v>2630</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>988</v>
+        <v>1020</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3043</v>
+        <v>2934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3942</v>
+        <v>4020</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7668</v>
+        <v>8142</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2794</v>
+        <v>2827</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6812</v>
+        <v>7509</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10543</v>
+        <v>9838</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13451</v>
+        <v>12421</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7969</v>
+        <v>7074</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12829</v>
+        <v>12976</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16527</v>
+        <v>15955</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12345</v>
+        <v>11659</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9919</v>
+        <v>10005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15379</v>
+        <v>16504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17518</v>
+        <v>16875</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21020</v>
+        <v>21024</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12924</v>
+        <v>12373</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23262</v>
+        <v>23567</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28822</v>
+        <v>28281</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29383</v>
+        <v>28628</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9816</v>
+        <v>9877</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12494</v>
+        <v>12524</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14270</v>
+        <v>14525</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17970</v>
+        <v>16475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14407</v>
+        <v>14380</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>39013</v>
+        <v>38739</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>29750</v>
+        <v>30816</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30933</v>
+        <v>30670</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>57640</v>
+        <v>58281</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29125</v>
+        <v>27417</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31683</v>
+        <v>31758</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35165</v>
+        <v>36734</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39478</v>
+        <v>38385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34778</v>
+        <v>34508</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>62631</v>
+        <v>62922</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58452</v>
+        <v>58064</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56897</v>
+        <v>56549</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>90662</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="24">
